--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H2">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I2">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J2">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.16152923978279</v>
+        <v>69.431465</v>
       </c>
       <c r="N2">
-        <v>69.16152923978279</v>
+        <v>138.86293</v>
       </c>
       <c r="O2">
-        <v>0.09341888069615858</v>
+        <v>0.09190206345159438</v>
       </c>
       <c r="P2">
-        <v>0.09341888069615858</v>
+        <v>0.06543919847711881</v>
       </c>
       <c r="Q2">
-        <v>83.98402354755034</v>
+        <v>86.38598072599333</v>
       </c>
       <c r="R2">
-        <v>83.98402354755034</v>
+        <v>518.31588435596</v>
       </c>
       <c r="S2">
-        <v>0.05688170375150015</v>
+        <v>0.04497654761285577</v>
       </c>
       <c r="T2">
-        <v>0.05688170375150015</v>
+        <v>0.03569311548787588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H3">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I3">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J3">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.76599744976831</v>
+        <v>86.37530266666666</v>
       </c>
       <c r="N3">
-        <v>80.76599744976831</v>
+        <v>259.125908</v>
       </c>
       <c r="O3">
-        <v>0.1090934391272267</v>
+        <v>0.1143295557183284</v>
       </c>
       <c r="P3">
-        <v>0.1090934391272267</v>
+        <v>0.1221131638528413</v>
       </c>
       <c r="Q3">
-        <v>98.07552704836684</v>
+        <v>107.4673454083751</v>
       </c>
       <c r="R3">
-        <v>98.07552704836684</v>
+        <v>967.2061086753758</v>
       </c>
       <c r="S3">
-        <v>0.06642576574911151</v>
+        <v>0.05595248368966665</v>
       </c>
       <c r="T3">
-        <v>0.06642576574911151</v>
+        <v>0.06660532771521313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H4">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I4">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J4">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>225.885862698594</v>
+        <v>227.431778</v>
       </c>
       <c r="N4">
-        <v>225.885862698594</v>
+        <v>682.295334</v>
       </c>
       <c r="O4">
-        <v>0.3051118835910674</v>
+        <v>0.3010371406201054</v>
       </c>
       <c r="P4">
-        <v>0.3051118835910674</v>
+        <v>0.3215318860234194</v>
       </c>
       <c r="Q4">
-        <v>274.2970524287531</v>
+        <v>282.9684954910053</v>
       </c>
       <c r="R4">
-        <v>274.2970524287531</v>
+        <v>2546.716459419048</v>
       </c>
       <c r="S4">
-        <v>0.1857791877204856</v>
+        <v>0.1473265210793614</v>
       </c>
       <c r="T4">
-        <v>0.1857791877204856</v>
+        <v>0.1753761508078567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H5">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I5">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J5">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>249.253771258429</v>
+        <v>249.751597</v>
       </c>
       <c r="N5">
-        <v>249.253771258429</v>
+        <v>749.2547910000001</v>
       </c>
       <c r="O5">
-        <v>0.3366757296463144</v>
+        <v>0.3305804812649572</v>
       </c>
       <c r="P5">
-        <v>0.3366757296463144</v>
+        <v>0.3530865507315824</v>
       </c>
       <c r="Q5">
-        <v>302.6731020088903</v>
+        <v>310.7386059724947</v>
       </c>
       <c r="R5">
-        <v>302.6731020088903</v>
+        <v>2796.647453752452</v>
       </c>
       <c r="S5">
-        <v>0.204998057901686</v>
+        <v>0.1617849284018027</v>
       </c>
       <c r="T5">
-        <v>0.204998057901686</v>
+        <v>0.1925873073901531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H6">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I6">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J6">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.8557814961438</v>
+        <v>47.46768966666667</v>
       </c>
       <c r="N6">
-        <v>46.8557814961438</v>
+        <v>142.403069</v>
       </c>
       <c r="O6">
-        <v>0.063289732162193</v>
+        <v>0.06282999541557407</v>
       </c>
       <c r="P6">
-        <v>0.063289732162193</v>
+        <v>0.06710749006982529</v>
       </c>
       <c r="Q6">
-        <v>56.89777394695694</v>
+        <v>59.05885645149645</v>
       </c>
       <c r="R6">
-        <v>56.89777394695694</v>
+        <v>531.529708063468</v>
       </c>
       <c r="S6">
-        <v>0.0385364047239081</v>
+        <v>0.03074877945273221</v>
       </c>
       <c r="T6">
-        <v>0.0385364047239081</v>
+        <v>0.03660306741075504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H7">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I7">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J7">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.4148645660574</v>
+        <v>75.036249</v>
       </c>
       <c r="N7">
-        <v>68.4148645660574</v>
+        <v>150.072498</v>
       </c>
       <c r="O7">
-        <v>0.09241033477703993</v>
+        <v>0.09932076352944065</v>
       </c>
       <c r="P7">
-        <v>0.09241033477703993</v>
+        <v>0.07072171084521271</v>
       </c>
       <c r="Q7">
-        <v>83.07733591022425</v>
+        <v>93.359400667476</v>
       </c>
       <c r="R7">
-        <v>83.07733591022425</v>
+        <v>560.156404004856</v>
       </c>
       <c r="S7">
-        <v>0.05626761150629676</v>
+        <v>0.0486072334184307</v>
       </c>
       <c r="T7">
-        <v>0.05626761150629676</v>
+        <v>0.03857440572993831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H8">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I8">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J8">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.16152923978279</v>
+        <v>69.431465</v>
       </c>
       <c r="N8">
-        <v>69.16152923978279</v>
+        <v>138.86293</v>
       </c>
       <c r="O8">
-        <v>0.09341888069615858</v>
+        <v>0.09190206345159438</v>
       </c>
       <c r="P8">
-        <v>0.09341888069615858</v>
+        <v>0.06543919847711881</v>
       </c>
       <c r="Q8">
-        <v>53.94597781892706</v>
+        <v>17.20039568738</v>
       </c>
       <c r="R8">
-        <v>53.94597781892706</v>
+        <v>103.20237412428</v>
       </c>
       <c r="S8">
-        <v>0.03653717694465843</v>
+        <v>0.008955323642701053</v>
       </c>
       <c r="T8">
-        <v>0.03653717694465843</v>
+        <v>0.007106890545748992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H9">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I9">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J9">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.76599744976831</v>
+        <v>86.37530266666666</v>
       </c>
       <c r="N9">
-        <v>80.76599744976831</v>
+        <v>259.125908</v>
       </c>
       <c r="O9">
-        <v>0.1090934391272267</v>
+        <v>0.1143295557183284</v>
       </c>
       <c r="P9">
-        <v>0.1090934391272267</v>
+        <v>0.1221131638528413</v>
       </c>
       <c r="Q9">
-        <v>62.99746050789325</v>
+        <v>21.39792648021866</v>
       </c>
       <c r="R9">
-        <v>62.99746050789325</v>
+        <v>192.581338321968</v>
       </c>
       <c r="S9">
-        <v>0.04266767337811521</v>
+        <v>0.01114075282894087</v>
       </c>
       <c r="T9">
-        <v>0.04266767337811521</v>
+        <v>0.01326185084618208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H10">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I10">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J10">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.885862698594</v>
+        <v>227.431778</v>
       </c>
       <c r="N10">
-        <v>225.885862698594</v>
+        <v>682.295334</v>
       </c>
       <c r="O10">
-        <v>0.3051118835910674</v>
+        <v>0.3010371406201054</v>
       </c>
       <c r="P10">
-        <v>0.3051118835910674</v>
+        <v>0.3215318860234194</v>
       </c>
       <c r="Q10">
-        <v>176.1909239528236</v>
+        <v>56.342129227496</v>
       </c>
       <c r="R10">
-        <v>176.1909239528236</v>
+        <v>507.079163047464</v>
       </c>
       <c r="S10">
-        <v>0.1193326958705818</v>
+        <v>0.02933432527493028</v>
       </c>
       <c r="T10">
-        <v>0.1193326958705818</v>
+        <v>0.03491931402148328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H11">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I11">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J11">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>249.253771258429</v>
+        <v>249.751597</v>
       </c>
       <c r="N11">
-        <v>249.253771258429</v>
+        <v>749.2547910000001</v>
       </c>
       <c r="O11">
-        <v>0.3366757296463144</v>
+        <v>0.3305804812649572</v>
       </c>
       <c r="P11">
-        <v>0.3366757296463144</v>
+        <v>0.3530865507315824</v>
       </c>
       <c r="Q11">
-        <v>194.4178875653988</v>
+        <v>61.871462628004</v>
       </c>
       <c r="R11">
-        <v>194.4178875653988</v>
+        <v>556.8431636520361</v>
       </c>
       <c r="S11">
-        <v>0.1316776717446284</v>
+        <v>0.03221315265948149</v>
       </c>
       <c r="T11">
-        <v>0.1316776717446284</v>
+        <v>0.03834624395808902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H12">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I12">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J12">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.8557814961438</v>
+        <v>47.46768966666667</v>
       </c>
       <c r="N12">
-        <v>46.8557814961438</v>
+        <v>142.403069</v>
       </c>
       <c r="O12">
-        <v>0.063289732162193</v>
+        <v>0.06282999541557407</v>
       </c>
       <c r="P12">
-        <v>0.063289732162193</v>
+        <v>0.06710749006982529</v>
       </c>
       <c r="Q12">
-        <v>36.54749941280224</v>
+        <v>11.75926569650267</v>
       </c>
       <c r="R12">
-        <v>36.54749941280224</v>
+        <v>105.833391268524</v>
       </c>
       <c r="S12">
-        <v>0.02475332743828489</v>
+        <v>0.006122419043531583</v>
       </c>
       <c r="T12">
-        <v>0.02475332743828489</v>
+        <v>0.007288071948083923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.247732</v>
+      </c>
+      <c r="H13">
+        <v>0.743196</v>
+      </c>
+      <c r="I13">
+        <v>0.09744420643414499</v>
+      </c>
+      <c r="J13">
+        <v>0.1086029583359576</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>75.036249</v>
+      </c>
+      <c r="N13">
+        <v>150.072498</v>
+      </c>
+      <c r="O13">
+        <v>0.09932076352944065</v>
+      </c>
+      <c r="P13">
+        <v>0.07072171084521271</v>
+      </c>
+      <c r="Q13">
+        <v>18.588880037268</v>
+      </c>
+      <c r="R13">
+        <v>111.533280223608</v>
+      </c>
+      <c r="S13">
+        <v>0.009678232984559713</v>
+      </c>
+      <c r="T13">
+        <v>0.007680587016370276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.216926</v>
+      </c>
+      <c r="H14">
+        <v>0.650778</v>
+      </c>
+      <c r="I14">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J14">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>69.431465</v>
+      </c>
+      <c r="N14">
+        <v>138.86293</v>
+      </c>
+      <c r="O14">
+        <v>0.09190206345159438</v>
+      </c>
+      <c r="P14">
+        <v>0.06543919847711881</v>
+      </c>
+      <c r="Q14">
+        <v>15.06148997659</v>
+      </c>
+      <c r="R14">
+        <v>90.36893985953999</v>
+      </c>
+      <c r="S14">
+        <v>0.007841710140460532</v>
+      </c>
+      <c r="T14">
+        <v>0.006223133622330365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.216926</v>
+      </c>
+      <c r="H15">
+        <v>0.650778</v>
+      </c>
+      <c r="I15">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J15">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.37530266666666</v>
+      </c>
+      <c r="N15">
+        <v>259.125908</v>
+      </c>
+      <c r="O15">
+        <v>0.1143295557183284</v>
+      </c>
+      <c r="P15">
+        <v>0.1221131638528413</v>
+      </c>
+      <c r="Q15">
+        <v>18.73704890626933</v>
+      </c>
+      <c r="R15">
+        <v>168.633440156424</v>
+      </c>
+      <c r="S15">
+        <v>0.009755376568916521</v>
+      </c>
+      <c r="T15">
+        <v>0.01161271154577888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.216926</v>
+      </c>
+      <c r="H16">
+        <v>0.650778</v>
+      </c>
+      <c r="I16">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J16">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>227.431778</v>
+      </c>
+      <c r="N16">
+        <v>682.295334</v>
+      </c>
+      <c r="O16">
+        <v>0.3010371406201054</v>
+      </c>
+      <c r="P16">
+        <v>0.3215318860234194</v>
+      </c>
+      <c r="Q16">
+        <v>49.33586587442799</v>
+      </c>
+      <c r="R16">
+        <v>444.022792869852</v>
+      </c>
+      <c r="S16">
+        <v>0.02568653966620996</v>
+      </c>
+      <c r="T16">
+        <v>0.0305770232082423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.216926</v>
+      </c>
+      <c r="H17">
+        <v>0.650778</v>
+      </c>
+      <c r="I17">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J17">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>249.751597</v>
+      </c>
+      <c r="N17">
+        <v>749.2547910000001</v>
+      </c>
+      <c r="O17">
+        <v>0.3305804812649572</v>
+      </c>
+      <c r="P17">
+        <v>0.3530865507315824</v>
+      </c>
+      <c r="Q17">
+        <v>54.177614930822</v>
+      </c>
+      <c r="R17">
+        <v>487.598534377398</v>
+      </c>
+      <c r="S17">
+        <v>0.02820737875531091</v>
+      </c>
+      <c r="T17">
+        <v>0.03357780713372684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.216926</v>
+      </c>
+      <c r="H18">
+        <v>0.650778</v>
+      </c>
+      <c r="I18">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J18">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.46768966666667</v>
+      </c>
+      <c r="N18">
+        <v>142.403069</v>
+      </c>
+      <c r="O18">
+        <v>0.06282999541557407</v>
+      </c>
+      <c r="P18">
+        <v>0.06710749006982529</v>
+      </c>
+      <c r="Q18">
+        <v>10.29697604863133</v>
+      </c>
+      <c r="R18">
+        <v>92.67278443768201</v>
+      </c>
+      <c r="S18">
+        <v>0.005361083240910064</v>
+      </c>
+      <c r="T18">
+        <v>0.00638178473273559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.216926</v>
+      </c>
+      <c r="H19">
+        <v>0.650778</v>
+      </c>
+      <c r="I19">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J19">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>75.036249</v>
+      </c>
+      <c r="N19">
+        <v>150.072498</v>
+      </c>
+      <c r="O19">
+        <v>0.09932076352944065</v>
+      </c>
+      <c r="P19">
+        <v>0.07072171084521271</v>
+      </c>
+      <c r="Q19">
+        <v>16.277313350574</v>
+      </c>
+      <c r="R19">
+        <v>97.66388010344399</v>
+      </c>
+      <c r="S19">
+        <v>0.008474724171316585</v>
+      </c>
+      <c r="T19">
+        <v>0.006725489719185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.149396</v>
+      </c>
+      <c r="I20">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J20">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.431465</v>
+      </c>
+      <c r="N20">
+        <v>138.86293</v>
+      </c>
+      <c r="O20">
+        <v>0.09190206345159438</v>
+      </c>
+      <c r="P20">
+        <v>0.06543919847711881</v>
+      </c>
+      <c r="Q20">
+        <v>3.457594381713333</v>
+      </c>
+      <c r="R20">
+        <v>20.74556629028</v>
+      </c>
+      <c r="S20">
+        <v>0.001800183976938744</v>
+      </c>
+      <c r="T20">
+        <v>0.001428615089387882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.149396</v>
+      </c>
+      <c r="I21">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J21">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.37530266666666</v>
+      </c>
+      <c r="N21">
+        <v>259.125908</v>
+      </c>
+      <c r="O21">
+        <v>0.1143295557183284</v>
+      </c>
+      <c r="P21">
+        <v>0.1221131638528413</v>
+      </c>
+      <c r="Q21">
+        <v>4.301374905729777</v>
+      </c>
+      <c r="R21">
+        <v>38.712374151568</v>
+      </c>
+      <c r="S21">
+        <v>0.00223949524705791</v>
+      </c>
+      <c r="T21">
+        <v>0.00266587477464386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="H13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="I13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="J13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>68.4148645660574</v>
-      </c>
-      <c r="N13">
-        <v>68.4148645660574</v>
-      </c>
-      <c r="O13">
-        <v>0.09241033477703993</v>
-      </c>
-      <c r="P13">
-        <v>0.09241033477703993</v>
-      </c>
-      <c r="Q13">
-        <v>53.36357953523213</v>
-      </c>
-      <c r="R13">
-        <v>53.36357953523213</v>
-      </c>
-      <c r="S13">
-        <v>0.03614272327074317</v>
-      </c>
-      <c r="T13">
-        <v>0.03614272327074317</v>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.149396</v>
+      </c>
+      <c r="I22">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J22">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>227.431778</v>
+      </c>
+      <c r="N22">
+        <v>682.295334</v>
+      </c>
+      <c r="O22">
+        <v>0.3010371406201054</v>
+      </c>
+      <c r="P22">
+        <v>0.3215318860234194</v>
+      </c>
+      <c r="Q22">
+        <v>11.32579930202933</v>
+      </c>
+      <c r="R22">
+        <v>101.932193718264</v>
+      </c>
+      <c r="S22">
+        <v>0.005896736337081315</v>
+      </c>
+      <c r="T22">
+        <v>0.007019421306833617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.149396</v>
+      </c>
+      <c r="I23">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J23">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>249.751597</v>
+      </c>
+      <c r="N23">
+        <v>749.2547910000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3305804812649572</v>
+      </c>
+      <c r="P23">
+        <v>0.3530865507315824</v>
+      </c>
+      <c r="Q23">
+        <v>12.43729652847067</v>
+      </c>
+      <c r="R23">
+        <v>111.935668756236</v>
+      </c>
+      <c r="S23">
+        <v>0.006475433337525897</v>
+      </c>
+      <c r="T23">
+        <v>0.007708296953108826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.149396</v>
+      </c>
+      <c r="I24">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J24">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>47.46768966666667</v>
+      </c>
+      <c r="N24">
+        <v>142.403069</v>
+      </c>
+      <c r="O24">
+        <v>0.06282999541557407</v>
+      </c>
+      <c r="P24">
+        <v>0.06710749006982529</v>
+      </c>
+      <c r="Q24">
+        <v>2.363827655147111</v>
+      </c>
+      <c r="R24">
+        <v>21.274448896324</v>
+      </c>
+      <c r="S24">
+        <v>0.001230718296959946</v>
+      </c>
+      <c r="T24">
+        <v>0.001465035867733338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.149396</v>
+      </c>
+      <c r="I25">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J25">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>75.036249</v>
+      </c>
+      <c r="N25">
+        <v>150.072498</v>
+      </c>
+      <c r="O25">
+        <v>0.09932076352944065</v>
+      </c>
+      <c r="P25">
+        <v>0.07072171084521271</v>
+      </c>
+      <c r="Q25">
+        <v>3.736705151868</v>
+      </c>
+      <c r="R25">
+        <v>22.420230911208</v>
+      </c>
+      <c r="S25">
+        <v>0.001945501987310592</v>
+      </c>
+      <c r="T25">
+        <v>0.001543938581340123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7836485</v>
+      </c>
+      <c r="H26">
+        <v>1.567297</v>
+      </c>
+      <c r="I26">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J26">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>69.431465</v>
+      </c>
+      <c r="N26">
+        <v>138.86293</v>
+      </c>
+      <c r="O26">
+        <v>0.09190206345159438</v>
+      </c>
+      <c r="P26">
+        <v>0.06543919847711881</v>
+      </c>
+      <c r="Q26">
+        <v>54.4098634000525</v>
+      </c>
+      <c r="R26">
+        <v>217.63945360021</v>
+      </c>
+      <c r="S26">
+        <v>0.02832829807863827</v>
+      </c>
+      <c r="T26">
+        <v>0.01498744373177568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7836485</v>
+      </c>
+      <c r="H27">
+        <v>1.567297</v>
+      </c>
+      <c r="I27">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J27">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>86.37530266666666</v>
+      </c>
+      <c r="N27">
+        <v>259.125908</v>
+      </c>
+      <c r="O27">
+        <v>0.1143295557183284</v>
+      </c>
+      <c r="P27">
+        <v>0.1221131638528413</v>
+      </c>
+      <c r="Q27">
+        <v>67.68787637177932</v>
+      </c>
+      <c r="R27">
+        <v>406.127258230676</v>
+      </c>
+      <c r="S27">
+        <v>0.03524144738374643</v>
+      </c>
+      <c r="T27">
+        <v>0.0279673989710233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7836485</v>
+      </c>
+      <c r="H28">
+        <v>1.567297</v>
+      </c>
+      <c r="I28">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J28">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>227.431778</v>
+      </c>
+      <c r="N28">
+        <v>682.295334</v>
+      </c>
+      <c r="O28">
+        <v>0.3010371406201054</v>
+      </c>
+      <c r="P28">
+        <v>0.3215318860234194</v>
+      </c>
+      <c r="Q28">
+        <v>178.226571682033</v>
+      </c>
+      <c r="R28">
+        <v>1069.359430092198</v>
+      </c>
+      <c r="S28">
+        <v>0.09279301826252241</v>
+      </c>
+      <c r="T28">
+        <v>0.07363997667900349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7836485</v>
+      </c>
+      <c r="H29">
+        <v>1.567297</v>
+      </c>
+      <c r="I29">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J29">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>249.751597</v>
+      </c>
+      <c r="N29">
+        <v>749.2547910000001</v>
+      </c>
+      <c r="O29">
+        <v>0.3305804812649572</v>
+      </c>
+      <c r="P29">
+        <v>0.3530865507315824</v>
+      </c>
+      <c r="Q29">
+        <v>195.7174643616545</v>
+      </c>
+      <c r="R29">
+        <v>1174.304786169927</v>
+      </c>
+      <c r="S29">
+        <v>0.1018995881108362</v>
+      </c>
+      <c r="T29">
+        <v>0.08086689529650461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7836485</v>
+      </c>
+      <c r="H30">
+        <v>1.567297</v>
+      </c>
+      <c r="I30">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J30">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>47.46768966666667</v>
+      </c>
+      <c r="N30">
+        <v>142.403069</v>
+      </c>
+      <c r="O30">
+        <v>0.06282999541557407</v>
+      </c>
+      <c r="P30">
+        <v>0.06710749006982529</v>
+      </c>
+      <c r="Q30">
+        <v>37.19798380574883</v>
+      </c>
+      <c r="R30">
+        <v>223.187902834493</v>
+      </c>
+      <c r="S30">
+        <v>0.01936699538144027</v>
+      </c>
+      <c r="T30">
+        <v>0.0153695301105174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7836485</v>
+      </c>
+      <c r="H31">
+        <v>1.567297</v>
+      </c>
+      <c r="I31">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J31">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>75.036249</v>
+      </c>
+      <c r="N31">
+        <v>150.072498</v>
+      </c>
+      <c r="O31">
+        <v>0.09932076352944065</v>
+      </c>
+      <c r="P31">
+        <v>0.07072171084521271</v>
+      </c>
+      <c r="Q31">
+        <v>58.8020439744765</v>
+      </c>
+      <c r="R31">
+        <v>235.208175897906</v>
+      </c>
+      <c r="S31">
+        <v>0.03061507096782306</v>
+      </c>
+      <c r="T31">
+        <v>0.01619728979837901</v>
       </c>
     </row>
   </sheetData>
